--- a/data/碧海云天.xlsx
+++ b/data/碧海云天.xlsx
@@ -10685,7 +10685,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
